--- a/teaching/traditional_assets/database/data/united_arab_emirates/united_arab_emirates_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/united_arab_emirates/united_arab_emirates_insurance_prop_cas.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,118 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.108</v>
+        <v>0.08595</v>
       </c>
       <c r="E2">
-        <v>-0.3115</v>
+        <v>0.0984</v>
       </c>
       <c r="G2">
-        <v>0.05379589296826385</v>
+        <v>0.07426844014510278</v>
       </c>
       <c r="H2">
-        <v>0.05379589296826385</v>
+        <v>0.07426844014510278</v>
       </c>
       <c r="I2">
-        <v>0.02506929392679574</v>
+        <v>0.1384662334291068</v>
       </c>
       <c r="J2">
-        <v>0.02286107030239596</v>
+        <v>0.1355354617866735</v>
       </c>
       <c r="K2">
-        <v>1.638</v>
+        <v>53.45</v>
       </c>
       <c r="L2">
-        <v>0.005096453018046049</v>
+        <v>0.1292623941958888</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.555</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.02880109670987039</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.2161833489242283</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>11.302</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.02817048853439681</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.2114499532273152</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.253</v>
+      </c>
+      <c r="T2">
+        <v>0.02189528342708784</v>
       </c>
       <c r="U2">
-        <v>103.57</v>
+        <v>118.1</v>
       </c>
       <c r="V2">
-        <v>0.4297510373443983</v>
+        <v>0.2943668993020937</v>
       </c>
       <c r="W2">
-        <v>0.01215976331360947</v>
+        <v>0.1694444444444445</v>
       </c>
       <c r="X2">
-        <v>0.04781335086042193</v>
+        <v>0.044565396872846</v>
       </c>
       <c r="Y2">
-        <v>-0.03565358754681246</v>
+        <v>0.1248790475715985</v>
       </c>
       <c r="Z2">
-        <v>1.538397879823556</v>
+        <v>2.404334490465921</v>
       </c>
       <c r="AA2">
-        <v>0.03711340206185568</v>
+        <v>0.1420746779136872</v>
       </c>
       <c r="AB2">
-        <v>0.04773818484252698</v>
+        <v>0.04246886801701201</v>
       </c>
       <c r="AC2">
-        <v>-0.009905247526765679</v>
+        <v>0.1032551068660386</v>
       </c>
       <c r="AD2">
-        <v>9.619999999999999</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="AE2">
-        <v>0.4786446596392518</v>
+        <v>0.03106238532161488</v>
       </c>
       <c r="AF2">
-        <v>10.09864465963925</v>
+        <v>73.71106238532161</v>
       </c>
       <c r="AG2">
-        <v>-93.47135534036076</v>
+        <v>-44.38893761467838</v>
       </c>
       <c r="AH2">
-        <v>0.04021783818597598</v>
+        <v>0.1552102450827219</v>
       </c>
       <c r="AI2">
-        <v>0.03559637964345886</v>
+        <v>0.1744182037480943</v>
       </c>
       <c r="AJ2">
-        <v>-0.633581061874505</v>
+        <v>-0.1244046003448811</v>
       </c>
       <c r="AK2">
-        <v>-0.5189144431579933</v>
+        <v>-0.1457711823897865</v>
       </c>
       <c r="AL2">
-        <v>0.46</v>
+        <v>0.949</v>
       </c>
       <c r="AM2">
-        <v>0.46</v>
+        <v>0.949</v>
       </c>
       <c r="AN2">
-        <v>0.9789355856314236</v>
+        <v>1.215941909398465</v>
       </c>
       <c r="AO2">
-        <v>16.64347826086956</v>
+        <v>60.30558482613277</v>
       </c>
       <c r="AP2">
-        <v>-9.511687731796149</v>
+        <v>-0.7325511612291177</v>
       </c>
       <c r="AQ2">
-        <v>16.64347826086956</v>
+        <v>60.30558482613277</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dubai Islamic Insurance &amp; Reinsurance Co. (Aman) (P.J.S.C) (DFM:AMAN)</t>
+          <t>Insurance House P.S.C. (ADX:IH)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,97 +725,100 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0601</v>
+        <v>0.134</v>
       </c>
       <c r="G3">
-        <v>0.1120786516853933</v>
+        <v>0.1204641350210971</v>
       </c>
       <c r="H3">
-        <v>0.1120786516853933</v>
+        <v>0.1204641350210971</v>
       </c>
       <c r="I3">
-        <v>0.06067415730337079</v>
+        <v>0.09156118143459915</v>
       </c>
       <c r="J3">
-        <v>0.06067415730337079</v>
+        <v>0.09156118143459915</v>
       </c>
       <c r="K3">
-        <v>0.509</v>
+        <v>3.69</v>
       </c>
       <c r="L3">
-        <v>0.01429775280898876</v>
+        <v>0.07784810126582278</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.515</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.01973180076628352</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.1395663956639566</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>0.262</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.01003831417624521</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.07100271002710028</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.253</v>
+      </c>
+      <c r="T3">
+        <v>0.4912621359223301</v>
       </c>
       <c r="U3">
-        <v>27.7</v>
+        <v>10.5</v>
       </c>
       <c r="V3">
-        <v>1.06949806949807</v>
+        <v>0.4022988505747126</v>
       </c>
       <c r="W3">
-        <v>0.02324200913242009</v>
+        <v>0.1078947368421053</v>
       </c>
       <c r="X3">
-        <v>0.05255885021899689</v>
+        <v>0.04334820328349445</v>
       </c>
       <c r="Y3">
-        <v>-0.0293168410865768</v>
+        <v>0.0645465335586108</v>
       </c>
       <c r="Z3">
-        <v>0.6116838487972509</v>
+        <v>4.232142857142856</v>
       </c>
       <c r="AA3">
-        <v>0.03711340206185568</v>
+        <v>0.3874999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.04299789412796077</v>
+        <v>0.04334820328349445</v>
       </c>
       <c r="AC3">
-        <v>-0.005884492066105092</v>
+        <v>0.3441517967165054</v>
       </c>
       <c r="AD3">
-        <v>9.619999999999999</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>9.619999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-18.08</v>
+        <v>-10.5</v>
       </c>
       <c r="AH3">
-        <v>0.2708333333333333</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.364118092354277</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-2.312020460358056</v>
+        <v>-0.673076923076923</v>
       </c>
       <c r="AK3">
-        <v>14.12500000000002</v>
+        <v>-0.4285714285714285</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -821,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>4.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-8.144144144144143</v>
+        <v>-2.164948453608248</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +841,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dar Al Takaful PJSC (DFM:DARTAKAFUL)</t>
+          <t>Islamic Arab Insurance Co. (Salama) PJSC (DFM:SALAMA)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -844,112 +850,118 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.12</v>
-      </c>
-      <c r="E4">
-        <v>-0.255</v>
+        <v>0.0379</v>
       </c>
       <c r="G4">
-        <v>0.06465517241379311</v>
+        <v>0.07788944723618091</v>
       </c>
       <c r="H4">
-        <v>0.06465517241379311</v>
+        <v>0.07788944723618091</v>
       </c>
       <c r="I4">
-        <v>0.02060344827586207</v>
+        <v>0.2153508690240187</v>
       </c>
       <c r="J4">
-        <v>0.02060344827586207</v>
+        <v>0.1971184320037079</v>
       </c>
       <c r="K4">
-        <v>0.411</v>
+        <v>40.9</v>
       </c>
       <c r="L4">
-        <v>0.008857758620689654</v>
+        <v>0.1712730318257956</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.03544026306174643</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0.2371638141809291</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.03544026306174643</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0.2371638141809291</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>5.97</v>
+        <v>61.6</v>
       </c>
       <c r="V4">
-        <v>0.2842857142857143</v>
+        <v>0.2250639386189258</v>
       </c>
       <c r="W4">
-        <v>0.01215976331360947</v>
+        <v>0.2010816125860374</v>
       </c>
       <c r="X4">
-        <v>0.04778163421456283</v>
+        <v>0.04346134210090338</v>
       </c>
       <c r="Y4">
-        <v>-0.03562187090095336</v>
+        <v>0.157620270485134</v>
       </c>
       <c r="Z4">
-        <v>1.838351822503962</v>
+        <v>1.788347937432797</v>
       </c>
       <c r="AA4">
-        <v>0.03787638668779715</v>
+        <v>0.352516341303818</v>
       </c>
       <c r="AB4">
-        <v>0.04778163421456283</v>
+        <v>0.04324233239675908</v>
       </c>
       <c r="AC4">
-        <v>-0.009905247526765679</v>
+        <v>0.3092740089070589</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.03106238532161488</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>2.021062385321615</v>
       </c>
       <c r="AG4">
-        <v>-5.97</v>
+        <v>-59.57893761467839</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.007330097917935517</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.007884886113195792</v>
       </c>
       <c r="AJ4">
-        <v>-0.3972055888223552</v>
+        <v>-0.2782488418045633</v>
       </c>
       <c r="AK4">
-        <v>-0.2114771519659936</v>
+        <v>-0.3059706889683113</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.949</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.949</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>0.03752451350128225</v>
+      </c>
+      <c r="AO4">
+        <v>54.1622760800843</v>
       </c>
       <c r="AP4">
-        <v>-4.033783783783783</v>
+        <v>-1.123452587393996</v>
+      </c>
+      <c r="AQ4">
+        <v>54.1622760800843</v>
       </c>
     </row>
     <row r="5">
@@ -960,7 +972,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Islamic Arab Insurance Co. (Salama) PJSC (DFM:SALAMA)</t>
+          <t>Dar Al Takaful PJSC (DFM:DARTAKAFUL)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -969,118 +981,237 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.108</v>
-      </c>
-      <c r="E5">
-        <v>-0.368</v>
+        <v>0.216</v>
       </c>
       <c r="G5">
-        <v>0.04302422723475356</v>
+        <v>0.03561497326203208</v>
       </c>
       <c r="H5">
-        <v>0.04302422723475356</v>
+        <v>0.03561497326203208</v>
       </c>
       <c r="I5">
-        <v>0.02064023002536403</v>
+        <v>-0.02064171122994652</v>
       </c>
       <c r="J5">
-        <v>0.01518595871383692</v>
+        <v>-0.02064171122994652</v>
       </c>
       <c r="K5">
-        <v>0.718</v>
+        <v>6.13</v>
       </c>
       <c r="L5">
-        <v>0.002999164578111946</v>
+        <v>0.06556149732620321</v>
       </c>
       <c r="M5">
+        <v>1.34</v>
+      </c>
+      <c r="N5">
+        <v>0.03517060367454068</v>
+      </c>
+      <c r="O5">
+        <v>0.2185970636215335</v>
+      </c>
+      <c r="P5">
+        <v>1.34</v>
+      </c>
+      <c r="Q5">
+        <v>0.03517060367454068</v>
+      </c>
+      <c r="R5">
+        <v>0.2185970636215335</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>18.2</v>
+      </c>
+      <c r="V5">
+        <v>0.4776902887139107</v>
+      </c>
+      <c r="W5">
+        <v>0.1792397660818713</v>
+      </c>
+      <c r="X5">
+        <v>0.06832135395953781</v>
+      </c>
+      <c r="Y5">
+        <v>0.1109184121223335</v>
+      </c>
+      <c r="Z5">
+        <v>3.312079348211122</v>
+      </c>
+      <c r="AA5">
+        <v>-0.06836698547644349</v>
+      </c>
+      <c r="AB5">
+        <v>0.03439680969853831</v>
+      </c>
+      <c r="AC5">
+        <v>-0.1027637951749818</v>
+      </c>
+      <c r="AD5">
+        <v>62.1</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>62.1</v>
+      </c>
+      <c r="AG5">
+        <v>43.90000000000001</v>
+      </c>
+      <c r="AH5">
+        <v>0.6197604790419161</v>
+      </c>
+      <c r="AI5">
+        <v>0.6142433234421365</v>
+      </c>
+      <c r="AJ5">
+        <v>0.5353658536585366</v>
+      </c>
+      <c r="AK5">
+        <v>0.5295536791314838</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>-82.03434610303832</v>
+      </c>
+      <c r="AP5">
+        <v>-57.99207397622194</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dubai Islamic Insurance &amp; Reinsurance Co. (Aman) (P.J.S.C) (DFM:AMAN)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Insurance (Prop/Cas.)</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>-0.09119999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.0984</v>
+      </c>
+      <c r="G6">
+        <v>0.0908284023668639</v>
+      </c>
+      <c r="H6">
+        <v>0.0908284023668639</v>
+      </c>
+      <c r="I6">
+        <v>0.1011834319526627</v>
+      </c>
+      <c r="J6">
+        <v>0.1011834319526627</v>
+      </c>
+      <c r="K6">
+        <v>2.73</v>
+      </c>
+      <c r="L6">
+        <v>0.08076923076923077</v>
+      </c>
+      <c r="M6">
         <v>-0</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>-0</v>
       </c>
-      <c r="O5">
+      <c r="O6">
         <v>-0</v>
       </c>
-      <c r="P5">
+      <c r="P6">
         <v>-0</v>
       </c>
-      <c r="Q5">
+      <c r="Q6">
         <v>-0</v>
       </c>
-      <c r="R5">
+      <c r="R6">
         <v>-0</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="V5">
-        <v>0.3601236476043277</v>
-      </c>
-      <c r="W5">
-        <v>0.003493917274939173</v>
-      </c>
-      <c r="X5">
-        <v>0.04781335086042193</v>
-      </c>
-      <c r="Y5">
-        <v>-0.04431943358548276</v>
-      </c>
-      <c r="Z5">
-        <v>1.907894372380036</v>
-      </c>
-      <c r="AA5">
-        <v>0.02897320516932502</v>
-      </c>
-      <c r="AB5">
-        <v>0.04773818484252698</v>
-      </c>
-      <c r="AC5">
-        <v>-0.01876497967320196</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0.4786446596392518</v>
-      </c>
-      <c r="AF5">
-        <v>0.4786446596392518</v>
-      </c>
-      <c r="AG5">
-        <v>-69.42135534036075</v>
-      </c>
-      <c r="AH5">
-        <v>0.00245990334898522</v>
-      </c>
-      <c r="AI5">
-        <v>0.002145631915459862</v>
-      </c>
-      <c r="AJ5">
-        <v>-0.5568022938481116</v>
-      </c>
-      <c r="AK5">
-        <v>-0.4532051807522779</v>
-      </c>
-      <c r="AL5">
-        <v>0.46</v>
-      </c>
-      <c r="AM5">
-        <v>0.46</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>9.869565217391305</v>
-      </c>
-      <c r="AP5">
-        <v>-11.33039910892129</v>
-      </c>
-      <c r="AQ5">
-        <v>9.869565217391305</v>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>27.8</v>
+      </c>
+      <c r="V6">
+        <v>0.439178515007899</v>
+      </c>
+      <c r="W6">
+        <v>0.1596491228070175</v>
+      </c>
+      <c r="X6">
+        <v>0.04566945164478861</v>
+      </c>
+      <c r="Y6">
+        <v>0.1139796711622289</v>
+      </c>
+      <c r="Z6">
+        <v>-34.48979591836733</v>
+      </c>
+      <c r="AA6">
+        <v>-3.489795918367345</v>
+      </c>
+      <c r="AB6">
+        <v>0.04169540363726493</v>
+      </c>
+      <c r="AC6">
+        <v>-3.53149132200461</v>
+      </c>
+      <c r="AD6">
+        <v>9.59</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>9.59</v>
+      </c>
+      <c r="AG6">
+        <v>-18.21</v>
+      </c>
+      <c r="AH6">
+        <v>0.1315681163396899</v>
+      </c>
+      <c r="AI6">
+        <v>0.3176548526001987</v>
+      </c>
+      <c r="AJ6">
+        <v>-0.4038589487691285</v>
+      </c>
+      <c r="AK6">
+        <v>-7.619246861924685</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>2.763688760806916</v>
+      </c>
+      <c r="AP6">
+        <v>-5.247838616714698</v>
       </c>
     </row>
   </sheetData>
